--- a/Data/g11.6a.xlsx
+++ b/Data/g11.6a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E99613CE-B062-4954-92B1-84B0CAF5D453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E511B0-CEB6-46A7-874D-160E94D76067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{8FCFC05E-1241-4306-8EAC-19D155C4879B}"/>
   </bookViews>
@@ -54,13 +54,13 @@
     <t>AC</t>
   </si>
   <si>
-    <t>RS</t>
-  </si>
-  <si>
     <t>MG</t>
   </si>
   <si>
     <t>RN</t>
+  </si>
+  <si>
+    <t>RR</t>
   </si>
 </sst>
 </file>
@@ -456,7 +456,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C10"/>
+      <selection activeCell="A2" sqref="A2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,7 +477,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>41.702915535839026</v>
+        <v>43.433333333333316</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -485,7 +485,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>42.034304459282033</v>
+        <v>44.204444444444441</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -493,18 +493,18 @@
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>43.885469858333607</v>
+        <v>43.76</v>
       </c>
       <c r="C4" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>45.326016490809494</v>
+        <v>47.47</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -512,10 +512,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>45.83414176589153</v>
+        <v>47.88</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -526,7 +526,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>46.206076794682055</v>
+        <v>48.41</v>
       </c>
       <c r="C7" s="3">
         <v>4</v>
@@ -534,10 +534,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1">
-        <v>47.742944011586999</v>
+        <v>49.28</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -545,10 +545,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>48.434986413437983</v>
+        <v>51.37</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -556,10 +556,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>53.257639985601834</v>
+        <v>56.94</v>
       </c>
       <c r="C10">
         <v>1</v>
